--- a/mapData.xlsx
+++ b/mapData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Github\Round_2_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E52AC95-55E4-4323-AC29-93727B00B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B8C0E-EC68-474F-AF15-3E269C58E476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapDat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="377">
   <si>
     <t>Key</t>
   </si>
@@ -320,12 +320,6 @@
   </si>
   <si>
     <t>Cyprus</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
   </si>
   <si>
     <t>Clinical</t>
@@ -1162,7 +1156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1996,16 +1990,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2096,7 +2090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2143,7 +2137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2237,7 +2231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2331,7 +2325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2425,7 +2419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2472,7 +2466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2519,7 +2513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2566,7 +2560,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2613,7 +2607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2707,7 +2701,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2801,7 +2795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2848,7 +2842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2895,7 +2889,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3036,7 +3030,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3083,7 +3077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3130,7 +3124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3271,7 +3265,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3318,7 +3312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3365,7 +3359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3459,7 +3453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3506,7 +3500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3553,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3647,7 +3641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3694,7 +3688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3741,7 +3735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3788,7 +3782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3835,7 +3829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3929,7 +3923,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3976,59 +3970,59 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G43">
-        <v>22932.224969999999</v>
+        <v>46208.429470000003</v>
       </c>
       <c r="H43">
-        <v>10.67</v>
+        <v>83.13</v>
       </c>
       <c r="I43">
-        <v>2977.49</v>
-      </c>
-      <c r="J43" t="s">
-        <v>16</v>
+        <v>1187.8699999999999</v>
+      </c>
+      <c r="J43">
+        <v>68900.853000000003</v>
       </c>
       <c r="K43">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="N43">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O43">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -4036,46 +4030,46 @@
       <c r="D44" t="s">
         <v>104</v>
       </c>
-      <c r="E44">
-        <v>2</v>
+      <c r="E44" t="s">
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G44">
-        <v>46208.429470000003</v>
-      </c>
-      <c r="H44">
-        <v>83.13</v>
-      </c>
-      <c r="I44">
-        <v>1187.8699999999999</v>
+        <v>3425.5034500000002</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
       </c>
       <c r="J44">
-        <v>68900.853000000003</v>
+        <v>13474.397000000001</v>
       </c>
       <c r="K44">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="N44">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="O44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
@@ -4083,46 +4077,46 @@
       <c r="D45" t="s">
         <v>106</v>
       </c>
-      <c r="E45" t="s">
-        <v>16</v>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G45">
-        <v>3425.5034500000002</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
+        <v>61063.316429999999</v>
+      </c>
+      <c r="H45">
+        <v>5.82</v>
+      </c>
+      <c r="I45">
+        <v>477.95</v>
       </c>
       <c r="J45">
-        <v>13474.397000000001</v>
+        <v>82462.084000000003</v>
       </c>
       <c r="K45">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="N45">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="O45">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
         <v>107</v>
@@ -4130,46 +4124,46 @@
       <c r="D46" t="s">
         <v>108</v>
       </c>
-      <c r="E46">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <v>61063.316429999999</v>
+        <v>7268.1969099999997</v>
       </c>
       <c r="H46">
-        <v>5.82</v>
+        <v>10.74</v>
       </c>
       <c r="I46">
-        <v>477.95</v>
+        <v>389.42</v>
       </c>
       <c r="J46">
-        <v>82462.084000000003</v>
+        <v>37111.705000000002</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="M46">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N46">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="O46">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>109</v>
@@ -4184,39 +4178,39 @@
         <v>16</v>
       </c>
       <c r="G47">
-        <v>7268.1969099999997</v>
+        <v>3310.3865340000002</v>
       </c>
       <c r="H47">
-        <v>10.74</v>
+        <v>43.05</v>
       </c>
       <c r="I47">
-        <v>389.42</v>
+        <v>139.57</v>
       </c>
       <c r="J47">
-        <v>37111.705000000002</v>
+        <v>4706.317</v>
       </c>
       <c r="K47">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="L47">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M47">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="N47">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O47">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>111</v>
@@ -4231,39 +4225,39 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>3310.3865340000002</v>
+        <v>5600.389615</v>
       </c>
       <c r="H48">
-        <v>43.05</v>
+        <v>17.37</v>
       </c>
       <c r="I48">
-        <v>139.57</v>
+        <v>1904.49</v>
       </c>
       <c r="J48">
-        <v>4706.317</v>
+        <v>29316.754000000001</v>
       </c>
       <c r="K48">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="L48">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="N48">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O48">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
         <v>113</v>
@@ -4271,46 +4265,46 @@
       <c r="D49" t="s">
         <v>114</v>
       </c>
-      <c r="E49" t="s">
-        <v>16</v>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G49">
-        <v>5600.389615</v>
+        <v>3547.870848</v>
       </c>
       <c r="H49">
-        <v>17.37</v>
+        <v>100.39</v>
       </c>
       <c r="I49">
-        <v>1904.49</v>
+        <v>197.04</v>
       </c>
       <c r="J49">
-        <v>29316.754000000001</v>
+        <v>3412.3609999999999</v>
       </c>
       <c r="K49">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="N49">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="O49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>115</v>
@@ -4318,46 +4312,46 @@
       <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="E50">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50">
-        <v>3547.870848</v>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
       </c>
       <c r="H50">
-        <v>100.39</v>
+        <v>3.5</v>
       </c>
       <c r="I50">
-        <v>197.04</v>
+        <v>15.16</v>
       </c>
       <c r="J50">
-        <v>3412.3609999999999</v>
+        <v>2028.3430000000001</v>
       </c>
       <c r="K50">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="M50">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="N50">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>117</v>
@@ -4365,46 +4359,46 @@
       <c r="D51" t="s">
         <v>118</v>
       </c>
-      <c r="E51" t="s">
-        <v>16</v>
+      <c r="E51">
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>27063.193920000002</v>
       </c>
       <c r="H51">
-        <v>3.5</v>
+        <v>47.08</v>
       </c>
       <c r="I51">
-        <v>15.16</v>
+        <v>1865.12</v>
       </c>
       <c r="J51">
-        <v>2028.3430000000001</v>
+        <v>109765.512</v>
       </c>
       <c r="K51">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="L51">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="M51">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="N51">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="O51">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>119</v>
@@ -4413,45 +4407,45 @@
         <v>120</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G52">
-        <v>27063.193920000002</v>
+        <v>23027.026999999998</v>
       </c>
       <c r="H52">
-        <v>47.08</v>
+        <v>1.33</v>
       </c>
       <c r="I52">
-        <v>1865.12</v>
+        <v>1292.03</v>
       </c>
       <c r="J52">
-        <v>109765.512</v>
+        <v>166889.52799999999</v>
       </c>
       <c r="K52">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>46</v>
+      </c>
+      <c r="N52">
         <v>6</v>
       </c>
-      <c r="M52">
-        <v>29</v>
-      </c>
-      <c r="N52">
-        <v>28</v>
-      </c>
       <c r="O52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>121</v>
@@ -4459,46 +4453,46 @@
       <c r="D53" t="s">
         <v>122</v>
       </c>
-      <c r="E53">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>23027.026999999998</v>
+        <v>936.34046109999997</v>
       </c>
       <c r="H53">
-        <v>1.33</v>
+        <v>112.08</v>
       </c>
       <c r="I53">
-        <v>1292.03</v>
+        <v>59.38</v>
       </c>
       <c r="J53">
-        <v>166889.52799999999</v>
+        <v>3148.8710000000001</v>
       </c>
       <c r="K53">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="M53">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="N53">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="O53">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>123</v>
@@ -4513,39 +4507,39 @@
         <v>16</v>
       </c>
       <c r="G54">
-        <v>936.34046109999997</v>
+        <v>48773.281170000002</v>
       </c>
       <c r="H54">
-        <v>112.08</v>
+        <v>5.52</v>
       </c>
       <c r="I54">
-        <v>59.38</v>
+        <v>225.71</v>
       </c>
       <c r="J54">
-        <v>3148.8710000000001</v>
+        <v>32853.665999999997</v>
       </c>
       <c r="K54">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="L54">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M54">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N54">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="O54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>125</v>
@@ -4560,39 +4554,39 @@
         <v>16</v>
       </c>
       <c r="G55">
-        <v>48773.281170000002</v>
-      </c>
-      <c r="H55">
-        <v>5.52</v>
-      </c>
-      <c r="I55">
-        <v>225.71</v>
+        <v>4881.5260689999996</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
       </c>
       <c r="J55">
-        <v>32853.665999999997</v>
+        <v>58139.392999999996</v>
       </c>
       <c r="K55">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L55">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M55">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="N55">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O55">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>127</v>
@@ -4606,8 +4600,8 @@
       <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="G56">
-        <v>4881.5260689999996</v>
+      <c r="G56" t="s">
+        <v>16</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -4615,31 +4609,31 @@
       <c r="I56" t="s">
         <v>16</v>
       </c>
-      <c r="J56">
-        <v>58139.392999999996</v>
+      <c r="J56" t="s">
+        <v>16</v>
       </c>
       <c r="K56">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="L56">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M56">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N56">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="O56">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>129</v>
@@ -4647,46 +4641,46 @@
       <c r="D57" t="s">
         <v>130</v>
       </c>
-      <c r="E57" t="s">
-        <v>16</v>
+      <c r="E57">
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="G57">
+        <v>39030.360370000002</v>
+      </c>
+      <c r="H57">
+        <v>67.06</v>
+      </c>
+      <c r="I57">
+        <v>1678.51</v>
+      </c>
+      <c r="J57">
+        <v>113287.129</v>
       </c>
       <c r="K57">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="L57">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="O57">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>131</v>
@@ -4694,46 +4688,46 @@
       <c r="D58" t="s">
         <v>132</v>
       </c>
-      <c r="E58">
-        <v>3</v>
+      <c r="E58" t="s">
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G58">
-        <v>39030.360370000002</v>
+        <v>7005.879097</v>
       </c>
       <c r="H58">
-        <v>67.06</v>
+        <v>2.17</v>
       </c>
       <c r="I58">
-        <v>1678.51</v>
+        <v>124.28</v>
       </c>
       <c r="J58">
-        <v>113287.129</v>
+        <v>16367.178</v>
       </c>
       <c r="K58">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M58">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="N58">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="O58">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>133</v>
@@ -4741,93 +4735,93 @@
       <c r="D59" t="s">
         <v>134</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G59">
-        <v>7005.879097</v>
+        <v>40284.638460000002</v>
       </c>
       <c r="H59">
-        <v>2.17</v>
+        <v>66.83</v>
       </c>
       <c r="I59">
-        <v>124.28</v>
+        <v>2141.4</v>
       </c>
       <c r="J59">
-        <v>16367.178</v>
+        <v>149042.796</v>
       </c>
       <c r="K59">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="L59">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="N59">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="O59">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G60">
-        <v>40284.638460000002</v>
+        <v>4278.8607709999997</v>
       </c>
       <c r="H60">
-        <v>66.83</v>
+        <v>3.72</v>
       </c>
       <c r="I60">
-        <v>2141.4</v>
+        <v>3034.37</v>
       </c>
       <c r="J60">
-        <v>149042.796</v>
+        <v>209887.85</v>
       </c>
       <c r="K60">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O60">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>138</v>
@@ -4835,46 +4829,46 @@
       <c r="D61" t="s">
         <v>139</v>
       </c>
-      <c r="E61" t="s">
-        <v>16</v>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G61">
-        <v>4278.8607709999997</v>
+        <v>2328.5346420000001</v>
       </c>
       <c r="H61">
-        <v>3.72</v>
+        <v>30.42</v>
       </c>
       <c r="I61">
-        <v>3034.37</v>
+        <v>39.68</v>
       </c>
       <c r="J61">
-        <v>209887.85</v>
+        <v>4125.7870000000003</v>
       </c>
       <c r="K61">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L61">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="O61">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>140</v>
@@ -4882,46 +4876,46 @@
       <c r="D62" t="s">
         <v>141</v>
       </c>
-      <c r="E62">
-        <v>1</v>
+      <c r="E62" t="s">
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G62">
-        <v>2328.5346420000001</v>
+        <v>1194.037865</v>
       </c>
       <c r="H62">
-        <v>30.42</v>
+        <v>12.77</v>
       </c>
       <c r="I62">
-        <v>39.68</v>
+        <v>30.3</v>
       </c>
       <c r="J62">
-        <v>4125.7870000000003</v>
+        <v>2279.2069999999999</v>
       </c>
       <c r="K62">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L62">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="M62">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N62">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="O62">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>142</v>
@@ -4935,40 +4929,40 @@
       <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63">
-        <v>1194.037865</v>
+      <c r="G63" t="s">
+        <v>16</v>
       </c>
       <c r="H63">
-        <v>12.77</v>
+        <v>2.35</v>
       </c>
       <c r="I63">
-        <v>30.3</v>
+        <v>145.25</v>
       </c>
       <c r="J63">
-        <v>2279.2069999999999</v>
+        <v>4016.587</v>
       </c>
       <c r="K63">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="L63">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M63">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="N63">
+        <v>119</v>
+      </c>
+      <c r="O63">
         <v>132</v>
       </c>
-      <c r="O63">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>144</v>
@@ -4985,37 +4979,37 @@
       <c r="G64" t="s">
         <v>16</v>
       </c>
-      <c r="H64">
-        <v>2.35</v>
-      </c>
-      <c r="I64">
-        <v>145.25</v>
-      </c>
-      <c r="J64">
-        <v>4016.587</v>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
       </c>
       <c r="K64">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M64">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="N64">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="O64">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
         <v>146</v>
@@ -5023,46 +5017,46 @@
       <c r="D65" t="s">
         <v>147</v>
       </c>
-      <c r="E65" t="s">
-        <v>16</v>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>7143.2387049999998</v>
+      </c>
+      <c r="H65">
+        <v>1.36</v>
+      </c>
+      <c r="I65">
+        <v>124.63</v>
+      </c>
+      <c r="J65">
+        <v>9365.5319999999992</v>
       </c>
       <c r="K65">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="L65">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="N65">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O65">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
         <v>148</v>
@@ -5074,42 +5068,42 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G66">
-        <v>7143.2387049999998</v>
+        <v>17676.192480000002</v>
       </c>
       <c r="H66">
-        <v>1.36</v>
+        <v>10.72</v>
       </c>
       <c r="I66">
-        <v>124.63</v>
+        <v>1593.36</v>
       </c>
       <c r="J66">
-        <v>9365.5319999999992</v>
+        <v>88776.922000000006</v>
       </c>
       <c r="K66">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="N66">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="O66">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>150</v>
@@ -5117,46 +5111,46 @@
       <c r="D67" t="s">
         <v>151</v>
       </c>
-      <c r="E67">
-        <v>2</v>
+      <c r="E67" t="s">
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67">
-        <v>17676.192480000002</v>
-      </c>
-      <c r="H67">
-        <v>10.72</v>
-      </c>
-      <c r="I67">
-        <v>1593.36</v>
-      </c>
-      <c r="J67">
-        <v>88776.922000000006</v>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
       </c>
       <c r="K67">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M67">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="N67">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="O67">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>152</v>
@@ -5170,40 +5164,40 @@
       <c r="F68" t="s">
         <v>16</v>
       </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" t="s">
-        <v>16</v>
+      <c r="G68">
+        <v>4603.3396169999996</v>
+      </c>
+      <c r="H68">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I68">
+        <v>950.07</v>
+      </c>
+      <c r="J68">
+        <v>33835.587</v>
       </c>
       <c r="K68">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="L68">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M68">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="N68">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="O68">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>154</v>
@@ -5217,40 +5211,40 @@
       <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="G69">
-        <v>4603.3396169999996</v>
-      </c>
-      <c r="H69">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="I69">
-        <v>950.07</v>
-      </c>
-      <c r="J69">
-        <v>33835.587</v>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
       </c>
       <c r="K69">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="L69">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M69">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="N69">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="O69">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
         <v>156</v>
@@ -5264,8 +5258,8 @@
       <c r="F70" t="s">
         <v>16</v>
       </c>
-      <c r="G70" t="s">
-        <v>16</v>
+      <c r="G70">
+        <v>6955.9392170000001</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -5273,31 +5267,31 @@
       <c r="I70" t="s">
         <v>16</v>
       </c>
-      <c r="J70" t="s">
-        <v>16</v>
+      <c r="J70">
+        <v>47710.51</v>
       </c>
       <c r="K70">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="L70">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M70">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N70">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="O70">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
         <v>158</v>
@@ -5305,46 +5299,46 @@
       <c r="D71" t="s">
         <v>159</v>
       </c>
-      <c r="E71" t="s">
-        <v>16</v>
+      <c r="E71">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G71">
-        <v>6955.9392170000001</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" t="s">
-        <v>16</v>
+        <v>2405.7328480000001</v>
+      </c>
+      <c r="H71">
+        <v>9.75</v>
+      </c>
+      <c r="I71">
+        <v>1064.22</v>
       </c>
       <c r="J71">
-        <v>47710.51</v>
+        <v>37549.362000000001</v>
       </c>
       <c r="K71">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="L71">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="M71">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="N71">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O71">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
@@ -5356,42 +5350,42 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G72">
-        <v>2405.7328480000001</v>
+        <v>13828.469499999999</v>
       </c>
       <c r="H72">
-        <v>9.75</v>
+        <v>4.07</v>
       </c>
       <c r="I72">
-        <v>1064.22</v>
+        <v>2486.29</v>
       </c>
       <c r="J72">
-        <v>37549.362000000001</v>
+        <v>146993.48800000001</v>
       </c>
       <c r="K72">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="O72">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>162</v>
@@ -5399,46 +5393,46 @@
       <c r="D73" t="s">
         <v>163</v>
       </c>
-      <c r="E73">
-        <v>1</v>
+      <c r="E73" t="s">
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G73">
-        <v>13828.469499999999</v>
+        <v>1176.7558200000001</v>
       </c>
       <c r="H73">
-        <v>4.07</v>
+        <v>11.26</v>
       </c>
       <c r="I73">
-        <v>2486.29</v>
+        <v>63.13</v>
       </c>
       <c r="J73">
-        <v>146993.48800000001</v>
+        <v>2168.4009999999998</v>
       </c>
       <c r="K73">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="L73">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="N73">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="O73">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
         <v>164</v>
@@ -5453,39 +5447,39 @@
         <v>16</v>
       </c>
       <c r="G74">
-        <v>1176.7558200000001</v>
+        <v>15899.148279999999</v>
       </c>
       <c r="H74">
-        <v>11.26</v>
+        <v>9.77</v>
       </c>
       <c r="I74">
-        <v>63.13</v>
+        <v>3341.37</v>
       </c>
       <c r="J74">
-        <v>2168.4009999999998</v>
+        <v>110947.68799999999</v>
       </c>
       <c r="K74">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="L74">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M74">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="O74">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>166</v>
@@ -5500,39 +5494,39 @@
         <v>16</v>
       </c>
       <c r="G75">
-        <v>15899.148279999999</v>
+        <v>3869.5884270000001</v>
       </c>
       <c r="H75">
-        <v>9.77</v>
+        <v>270.63</v>
       </c>
       <c r="I75">
-        <v>3341.37</v>
+        <v>531.03</v>
       </c>
       <c r="J75">
-        <v>110947.68799999999</v>
+        <v>15398.915999999999</v>
       </c>
       <c r="K75">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="L75">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M75">
+        <v>72</v>
+      </c>
+      <c r="N75">
+        <v>95</v>
+      </c>
+      <c r="O75">
         <v>4</v>
       </c>
-      <c r="N75">
-        <v>26</v>
-      </c>
-      <c r="O75">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>168</v>
@@ -5540,46 +5534,46 @@
       <c r="D76" t="s">
         <v>169</v>
       </c>
-      <c r="E76" t="s">
-        <v>16</v>
+      <c r="E76">
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G76">
-        <v>3869.5884270000001</v>
+        <v>1900.7068099999999</v>
       </c>
       <c r="H76">
-        <v>270.63</v>
+        <v>1366.42</v>
       </c>
       <c r="I76">
-        <v>531.03</v>
+        <v>340.03</v>
       </c>
       <c r="J76">
-        <v>15398.915999999999</v>
+        <v>24811.468000000001</v>
       </c>
       <c r="K76">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="L76">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="N76">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>170</v>
@@ -5588,45 +5582,45 @@
         <v>171</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G77">
-        <v>1900.7068099999999</v>
+        <v>85267.764739999999</v>
       </c>
       <c r="H77">
-        <v>1366.42</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I77">
-        <v>340.03</v>
+        <v>1135.0899999999999</v>
       </c>
       <c r="J77">
-        <v>24811.468000000001</v>
+        <v>111645.538</v>
       </c>
       <c r="K77">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="N77">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="O77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>172</v>
@@ -5634,46 +5628,46 @@
       <c r="D78" t="s">
         <v>173</v>
       </c>
-      <c r="E78">
-        <v>3</v>
+      <c r="E78" t="s">
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78">
-        <v>85267.764739999999</v>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
       </c>
       <c r="H78">
-        <v>4.9400000000000004</v>
+        <v>82.91</v>
       </c>
       <c r="I78">
-        <v>1135.0899999999999</v>
+        <v>1551.42</v>
       </c>
       <c r="J78">
-        <v>111645.538</v>
+        <v>71800.423999999999</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="L78">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M78">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N78">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O78">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>174</v>
@@ -5687,40 +5681,40 @@
       <c r="F79" t="s">
         <v>16</v>
       </c>
-      <c r="G79" t="s">
-        <v>16</v>
+      <c r="G79">
+        <v>4157.4844949999997</v>
       </c>
       <c r="H79">
-        <v>82.91</v>
+        <v>39.31</v>
       </c>
       <c r="I79">
-        <v>1551.42</v>
+        <v>600.54</v>
       </c>
       <c r="J79">
-        <v>71800.423999999999</v>
+        <v>50488.508000000002</v>
       </c>
       <c r="K79">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="L79">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M79">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N79">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O79">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>176</v>
@@ -5735,39 +5729,39 @@
         <v>16</v>
       </c>
       <c r="G80">
-        <v>4157.4844949999997</v>
-      </c>
-      <c r="H80">
-        <v>39.31</v>
-      </c>
-      <c r="I80">
-        <v>600.54</v>
+        <v>59270.180050000003</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
       </c>
       <c r="J80">
-        <v>50488.508000000002</v>
+        <v>50809.646000000001</v>
       </c>
       <c r="K80">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="L80">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M80">
+        <v>161</v>
+      </c>
+      <c r="N80">
         <v>68</v>
       </c>
-      <c r="N80">
-        <v>69</v>
-      </c>
       <c r="O80">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>178</v>
@@ -5775,46 +5769,46 @@
       <c r="D81" t="s">
         <v>179</v>
       </c>
-      <c r="E81" t="s">
-        <v>16</v>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G81">
-        <v>59270.180050000003</v>
-      </c>
-      <c r="H81" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" t="s">
-        <v>16</v>
+        <v>43610.516230000001</v>
+      </c>
+      <c r="H81">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I81">
+        <v>900.67</v>
       </c>
       <c r="J81">
-        <v>50809.646000000001</v>
+        <v>144428.049</v>
       </c>
       <c r="K81">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L81">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M81">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="N81">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="O81">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>180</v>
@@ -5823,45 +5817,45 @@
         <v>181</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G82">
-        <v>43610.516230000001</v>
+        <v>31676.202099999999</v>
       </c>
       <c r="H82">
-        <v>9.0500000000000007</v>
+        <v>60.3</v>
       </c>
       <c r="I82">
-        <v>900.67</v>
+        <v>2206.3000000000002</v>
       </c>
       <c r="J82">
-        <v>144428.049</v>
+        <v>82741.432000000001</v>
       </c>
       <c r="K82">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="L82">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M82">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N82">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="O82">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>182</v>
@@ -5869,46 +5863,46 @@
       <c r="D83" t="s">
         <v>183</v>
       </c>
-      <c r="E83">
-        <v>13</v>
+      <c r="E83" t="s">
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G83">
-        <v>31676.202099999999</v>
+        <v>4664.5291500000003</v>
       </c>
       <c r="H83">
-        <v>60.3</v>
+        <v>2.95</v>
       </c>
       <c r="I83">
-        <v>2206.3000000000002</v>
+        <v>794.7</v>
       </c>
       <c r="J83">
-        <v>82741.432000000001</v>
+        <v>30645.085999999999</v>
       </c>
       <c r="K83">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L83">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="M83">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="N83">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="O83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>184</v>
@@ -5916,46 +5910,46 @@
       <c r="D84" t="s">
         <v>185</v>
       </c>
-      <c r="E84" t="s">
-        <v>16</v>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G84">
-        <v>4664.5291500000003</v>
+        <v>4282.7658229999997</v>
       </c>
       <c r="H84">
-        <v>2.95</v>
+        <v>10.1</v>
       </c>
       <c r="I84">
-        <v>794.7</v>
+        <v>1119.6099999999999</v>
       </c>
       <c r="J84">
-        <v>30645.085999999999</v>
+        <v>91468.593999999997</v>
       </c>
       <c r="K84">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L84">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="M84">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N84">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O84">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>186</v>
@@ -5964,45 +5958,45 @@
         <v>187</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G85">
-        <v>4282.7658229999997</v>
+        <v>39538.879269999998</v>
       </c>
       <c r="H85">
-        <v>10.1</v>
+        <v>126.26</v>
       </c>
       <c r="I85">
-        <v>1119.6099999999999</v>
+        <v>145.22999999999999</v>
       </c>
       <c r="J85">
-        <v>91468.593999999997</v>
+        <v>13696.217000000001</v>
       </c>
       <c r="K85">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L85">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M85">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N85">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="O85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>188</v>
@@ -6010,46 +6004,46 @@
       <c r="D86" t="s">
         <v>189</v>
       </c>
-      <c r="E86">
-        <v>6</v>
+      <c r="E86" t="s">
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G86">
-        <v>39538.879269999998</v>
+        <v>9055.7450090000002</v>
       </c>
       <c r="H86">
-        <v>126.26</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="I86">
-        <v>145.22999999999999</v>
+        <v>950.69</v>
       </c>
       <c r="J86">
-        <v>13696.217000000001</v>
+        <v>55415.864000000001</v>
       </c>
       <c r="K86">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="L86">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="M86">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="N86">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O86">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>190</v>
@@ -6057,46 +6051,46 @@
       <c r="D87" t="s">
         <v>191</v>
       </c>
-      <c r="E87" t="s">
-        <v>16</v>
+      <c r="E87">
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G87">
-        <v>9055.7450090000002</v>
+        <v>1838.2099679999999</v>
       </c>
       <c r="H87">
-        <v>18.510000000000002</v>
+        <v>52.57</v>
       </c>
       <c r="I87">
-        <v>950.69</v>
+        <v>101.29</v>
       </c>
       <c r="J87">
-        <v>55415.864000000001</v>
+        <v>4636.4780000000001</v>
       </c>
       <c r="K87">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="L87">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="M87">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="N87">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="O87">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>192</v>
@@ -6104,46 +6098,46 @@
       <c r="D88" t="s">
         <v>193</v>
       </c>
-      <c r="E88">
-        <v>4</v>
+      <c r="E88" t="s">
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88">
-        <v>1838.2099679999999</v>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
       </c>
       <c r="H88">
-        <v>52.57</v>
+        <v>6.46</v>
       </c>
       <c r="I88">
-        <v>101.29</v>
+        <v>420.48</v>
       </c>
       <c r="J88">
-        <v>4636.4780000000001</v>
+        <v>27639.922999999999</v>
       </c>
       <c r="K88">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="L88">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="M88">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="N88">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="O88">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>194</v>
@@ -6157,40 +6151,40 @@
       <c r="F89" t="s">
         <v>16</v>
       </c>
-      <c r="G89" t="s">
-        <v>16</v>
+      <c r="G89">
+        <v>1512.7277529999999</v>
       </c>
       <c r="H89">
-        <v>6.46</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="I89">
-        <v>420.48</v>
+        <v>175.11</v>
       </c>
       <c r="J89">
-        <v>27639.922999999999</v>
+        <v>7084.9070000000002</v>
       </c>
       <c r="K89">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="L89">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M89">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="N89">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="O89">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>196</v>
@@ -6198,46 +6192,46 @@
       <c r="D90" t="s">
         <v>197</v>
       </c>
-      <c r="E90" t="s">
-        <v>16</v>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G90">
-        <v>1512.7277529999999</v>
+        <v>31489.1227</v>
       </c>
       <c r="H90">
-        <v>16.489999999999998</v>
+        <v>51.71</v>
       </c>
       <c r="I90">
-        <v>175.11</v>
+        <v>62.17</v>
       </c>
       <c r="J90">
-        <v>7084.9070000000002</v>
+        <v>8593.5959999999995</v>
       </c>
       <c r="K90">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>117</v>
+      </c>
+      <c r="N90">
         <v>107</v>
       </c>
-      <c r="M90">
-        <v>96</v>
-      </c>
-      <c r="N90">
-        <v>111</v>
-      </c>
       <c r="O90">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>198</v>
@@ -6245,46 +6239,46 @@
       <c r="D91" t="s">
         <v>199</v>
       </c>
-      <c r="E91">
-        <v>12</v>
+      <c r="E91" t="s">
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G91">
-        <v>31489.1227</v>
+        <v>4287.2009029999999</v>
       </c>
       <c r="H91">
-        <v>51.71</v>
+        <v>1.79</v>
       </c>
       <c r="I91">
-        <v>62.17</v>
+        <v>1660.86</v>
       </c>
       <c r="J91">
-        <v>8593.5959999999995</v>
+        <v>90384.178</v>
       </c>
       <c r="K91">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="L91">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="M91">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="N91">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O91">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
         <v>200</v>
@@ -6292,46 +6286,46 @@
       <c r="D92" t="s">
         <v>201</v>
       </c>
-      <c r="E92" t="s">
-        <v>16</v>
+      <c r="E92">
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92">
-        <v>4287.2009029999999</v>
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
       </c>
       <c r="H92">
-        <v>1.79</v>
+        <v>4.21</v>
       </c>
       <c r="I92">
-        <v>1660.86</v>
+        <v>585.67999999999995</v>
       </c>
       <c r="J92">
-        <v>90384.178</v>
+        <v>95474.4</v>
       </c>
       <c r="K92">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="L92">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="M92">
+        <v>70</v>
+      </c>
+      <c r="N92">
         <v>35</v>
       </c>
-      <c r="N92">
-        <v>40</v>
-      </c>
       <c r="O92">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
         <v>202</v>
@@ -6339,46 +6333,46 @@
       <c r="D93" t="s">
         <v>203</v>
       </c>
-      <c r="E93">
-        <v>1</v>
+      <c r="E93" t="s">
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93">
-        <v>4.21</v>
+        <v>7.17</v>
       </c>
       <c r="I93">
-        <v>585.67999999999995</v>
+        <v>16.18</v>
       </c>
       <c r="J93">
-        <v>95474.4</v>
+        <v>9529.6910000000007</v>
       </c>
       <c r="K93">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L93">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="M93">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="N93">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="O93">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>204</v>
@@ -6392,40 +6386,40 @@
       <c r="F94" t="s">
         <v>16</v>
       </c>
-      <c r="G94" t="s">
-        <v>16</v>
+      <c r="G94">
+        <v>4891.0014700000002</v>
       </c>
       <c r="H94">
-        <v>7.17</v>
+        <v>6.86</v>
       </c>
       <c r="I94">
-        <v>16.18</v>
+        <v>1256.76</v>
       </c>
       <c r="J94">
-        <v>9529.6910000000007</v>
+        <v>98500.979000000007</v>
       </c>
       <c r="K94">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="L94">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M94">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="N94">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="O94">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
         <v>206</v>
@@ -6440,39 +6434,39 @@
         <v>16</v>
       </c>
       <c r="G95">
-        <v>4891.0014700000002</v>
+        <v>583.27172729999995</v>
       </c>
       <c r="H95">
-        <v>6.86</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I95">
-        <v>1256.76</v>
+        <v>58.13</v>
       </c>
       <c r="J95">
-        <v>98500.979000000007</v>
+        <v>1123.7</v>
       </c>
       <c r="K95">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="L95">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M95">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="N95">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>208</v>
@@ -6487,39 +6481,39 @@
         <v>16</v>
       </c>
       <c r="G96">
-        <v>583.27172729999995</v>
+        <v>3699.2286210000002</v>
       </c>
       <c r="H96">
-        <v>4.9400000000000004</v>
+        <v>6.78</v>
       </c>
       <c r="I96">
-        <v>58.13</v>
+        <v>788.79</v>
       </c>
       <c r="J96">
-        <v>1123.7</v>
+        <v>53285.186999999998</v>
       </c>
       <c r="K96">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="L96">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M96">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="N96">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="O96">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
         <v>210</v>
@@ -6534,39 +6528,39 @@
         <v>16</v>
       </c>
       <c r="G97">
-        <v>3699.2286210000002</v>
+        <v>3682.0384250000002</v>
       </c>
       <c r="H97">
-        <v>6.78</v>
+        <v>21.8</v>
       </c>
       <c r="I97">
-        <v>788.79</v>
+        <v>645.41999999999996</v>
       </c>
       <c r="J97">
-        <v>53285.186999999998</v>
+        <v>26132.484</v>
       </c>
       <c r="K97">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L97">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M97">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N97">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="O97">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
         <v>212</v>
@@ -6581,39 +6575,39 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <v>3682.0384250000002</v>
+        <v>861.01454809999996</v>
       </c>
       <c r="H98">
-        <v>21.8</v>
+        <v>2.13</v>
       </c>
       <c r="I98">
-        <v>645.41999999999996</v>
+        <v>311.02</v>
       </c>
       <c r="J98">
-        <v>26132.484</v>
+        <v>10076.111999999999</v>
       </c>
       <c r="K98">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L98">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M98">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="N98">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="O98">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>214</v>
@@ -6621,46 +6615,46 @@
       <c r="D99" t="s">
         <v>215</v>
       </c>
-      <c r="E99" t="s">
-        <v>16</v>
+      <c r="E99">
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G99">
-        <v>861.01454809999996</v>
+        <v>19997.592530000002</v>
       </c>
       <c r="H99">
-        <v>2.13</v>
+        <v>2.79</v>
       </c>
       <c r="I99">
-        <v>311.02</v>
+        <v>2310.86</v>
       </c>
       <c r="J99">
-        <v>10076.111999999999</v>
+        <v>173469.122</v>
       </c>
       <c r="K99">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="L99">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M99">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="N99">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="O99">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
         <v>216</v>
@@ -6668,46 +6662,46 @@
       <c r="D100" t="s">
         <v>217</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100">
+        <v>115873.6026</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100">
+        <v>138793.41</v>
+      </c>
+      <c r="K100">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100">
-        <v>19997.592530000002</v>
-      </c>
-      <c r="H100">
-        <v>2.79</v>
-      </c>
-      <c r="I100">
-        <v>2310.86</v>
-      </c>
-      <c r="J100">
-        <v>173469.122</v>
-      </c>
-      <c r="K100">
-        <v>33</v>
-      </c>
       <c r="L100">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="M100">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O100">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>218</v>
@@ -6722,39 +6716,39 @@
         <v>16</v>
       </c>
       <c r="G101">
-        <v>115873.6026</v>
-      </c>
-      <c r="H101" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" t="s">
-        <v>16</v>
+        <v>17619.952389999999</v>
+      </c>
+      <c r="H101">
+        <v>1.91</v>
+      </c>
+      <c r="I101">
+        <v>2039.43</v>
       </c>
       <c r="J101">
-        <v>138793.41</v>
+        <v>134940.49600000001</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="L101">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M101">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O101">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>220</v>
@@ -6769,39 +6763,39 @@
         <v>16</v>
       </c>
       <c r="G102">
-        <v>17619.952389999999</v>
+        <v>3009.24946</v>
       </c>
       <c r="H102">
-        <v>1.91</v>
+        <v>36.47</v>
       </c>
       <c r="I102">
-        <v>2039.43</v>
+        <v>404.56</v>
       </c>
       <c r="J102">
-        <v>134940.49600000001</v>
+        <v>25429.198</v>
       </c>
       <c r="K102">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="L102">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N102">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="O102">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
         <v>222</v>
@@ -6816,39 +6810,39 @@
         <v>16</v>
       </c>
       <c r="G103">
-        <v>3009.24946</v>
+        <v>4551.1306759999998</v>
       </c>
       <c r="H103">
-        <v>36.47</v>
+        <v>2.66</v>
       </c>
       <c r="I103">
-        <v>404.56</v>
+        <v>3276.97</v>
       </c>
       <c r="J103">
-        <v>25429.198</v>
+        <v>90040.692999999999</v>
       </c>
       <c r="K103">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="L103">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M103">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="O103">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
         <v>224</v>
@@ -6863,39 +6857,39 @@
         <v>16</v>
       </c>
       <c r="G104">
-        <v>4551.1306759999998</v>
+        <v>495.4904009</v>
       </c>
       <c r="H104">
-        <v>2.66</v>
+        <v>26.97</v>
       </c>
       <c r="I104">
-        <v>3276.97</v>
+        <v>35.74</v>
       </c>
       <c r="J104">
-        <v>90040.692999999999</v>
+        <v>1550.3389999999999</v>
       </c>
       <c r="K104">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="L104">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="N104">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="O104">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>226</v>
@@ -6903,46 +6897,46 @@
       <c r="D105" t="s">
         <v>227</v>
       </c>
-      <c r="E105" t="s">
-        <v>16</v>
+      <c r="E105">
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G105">
-        <v>495.4904009</v>
+        <v>8346.7023790000003</v>
       </c>
       <c r="H105">
-        <v>26.97</v>
+        <v>127.58</v>
       </c>
       <c r="I105">
-        <v>35.74</v>
+        <v>2288.2800000000002</v>
       </c>
       <c r="J105">
-        <v>1550.3389999999999</v>
+        <v>29784.813999999998</v>
       </c>
       <c r="K105">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="L105">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="M105">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="N105">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="O105">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
         <v>228</v>
@@ -6950,46 +6944,46 @@
       <c r="D106" t="s">
         <v>229</v>
       </c>
-      <c r="E106">
-        <v>1</v>
+      <c r="E106" t="s">
+        <v>16</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106">
-        <v>8346.7023790000003</v>
-      </c>
-      <c r="H106">
-        <v>127.58</v>
-      </c>
-      <c r="I106">
-        <v>2288.2800000000002</v>
-      </c>
-      <c r="J106">
-        <v>29784.813999999998</v>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
       </c>
       <c r="K106">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="L106">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="M106">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="N106">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O106">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
         <v>230</v>
@@ -7003,40 +6997,40 @@
       <c r="F107" t="s">
         <v>16</v>
       </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
-      <c r="H107" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" t="s">
-        <v>16</v>
-      </c>
-      <c r="J107" t="s">
-        <v>16</v>
+      <c r="G107">
+        <v>858.91580550000003</v>
+      </c>
+      <c r="H107">
+        <v>19.66</v>
+      </c>
+      <c r="I107">
+        <v>29.96</v>
+      </c>
+      <c r="J107">
+        <v>829.50800000000004</v>
       </c>
       <c r="K107">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="L107">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M107">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="N107">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="O107">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>232</v>
@@ -7051,39 +7045,39 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>858.91580550000003</v>
-      </c>
-      <c r="H108">
-        <v>19.66</v>
-      </c>
-      <c r="I108">
-        <v>29.96</v>
+        <v>27884.642830000001</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>16</v>
       </c>
       <c r="J108">
-        <v>829.50800000000004</v>
+        <v>75880.642999999996</v>
       </c>
       <c r="K108">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="L108">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M108">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="N108">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="O108">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>234</v>
@@ -7098,7 +7092,7 @@
         <v>16</v>
       </c>
       <c r="G109">
-        <v>27884.642830000001</v>
+        <v>1400.2182419999999</v>
       </c>
       <c r="H109" t="s">
         <v>16</v>
@@ -7107,30 +7101,30 @@
         <v>16</v>
       </c>
       <c r="J109">
-        <v>75880.642999999996</v>
+        <v>9510.1059999999998</v>
       </c>
       <c r="K109">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="L109">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M109">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N109">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="O109">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
         <v>236</v>
@@ -7145,7 +7139,7 @@
         <v>16</v>
       </c>
       <c r="G110">
-        <v>1400.2182419999999</v>
+        <v>7686.0929489999999</v>
       </c>
       <c r="H110" t="s">
         <v>16</v>
@@ -7154,30 +7148,30 @@
         <v>16</v>
       </c>
       <c r="J110">
-        <v>9510.1059999999998</v>
+        <v>249355.546</v>
       </c>
       <c r="K110">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="L110">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M110">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N110">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>238</v>
@@ -7192,39 +7186,39 @@
         <v>16</v>
       </c>
       <c r="G111">
-        <v>7686.0929489999999</v>
-      </c>
-      <c r="H111" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" t="s">
-        <v>16</v>
+        <v>4007.3088849999999</v>
+      </c>
+      <c r="H111">
+        <v>3.23</v>
+      </c>
+      <c r="I111">
+        <v>596.87</v>
       </c>
       <c r="J111">
-        <v>249355.546</v>
+        <v>114422.569</v>
       </c>
       <c r="K111">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L111">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M111">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O111">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
         <v>240</v>
@@ -7239,39 +7233,39 @@
         <v>16</v>
       </c>
       <c r="G112">
-        <v>4007.3088849999999</v>
+        <v>448.60745359999999</v>
       </c>
       <c r="H112">
-        <v>3.23</v>
+        <v>30.37</v>
       </c>
       <c r="I112">
-        <v>596.87</v>
+        <v>63.76</v>
       </c>
       <c r="J112">
-        <v>114422.569</v>
+        <v>4710.8410000000003</v>
       </c>
       <c r="K112">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="L112">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M112">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="N112">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="O112">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
         <v>242</v>
@@ -7286,39 +7280,39 @@
         <v>16</v>
       </c>
       <c r="G113">
-        <v>448.60745359999999</v>
+        <v>1672.9235349999999</v>
       </c>
       <c r="H113">
-        <v>30.37</v>
+        <v>4.53</v>
       </c>
       <c r="I113">
-        <v>63.76</v>
+        <v>179.42</v>
       </c>
       <c r="J113">
-        <v>4710.8410000000003</v>
+        <v>8191.4340000000002</v>
       </c>
       <c r="K113">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="L113">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M113">
+        <v>94</v>
+      </c>
+      <c r="N113">
+        <v>108</v>
+      </c>
+      <c r="O113">
         <v>115</v>
       </c>
-      <c r="N113">
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>114</v>
       </c>
-      <c r="O113">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
       <c r="B114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>244</v>
@@ -7333,39 +7327,39 @@
         <v>16</v>
       </c>
       <c r="G114">
-        <v>1672.9235349999999</v>
+        <v>625.29412920000004</v>
       </c>
       <c r="H114">
-        <v>4.53</v>
+        <v>18.63</v>
       </c>
       <c r="I114">
-        <v>179.42</v>
+        <v>123.63</v>
       </c>
       <c r="J114">
-        <v>8191.4340000000002</v>
+        <v>3149.9389999999999</v>
       </c>
       <c r="K114">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L114">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M114">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N114">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="O114">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
       <c r="B115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
         <v>246</v>
@@ -7373,46 +7367,46 @@
       <c r="D115" t="s">
         <v>247</v>
       </c>
-      <c r="E115" t="s">
-        <v>16</v>
+      <c r="E115">
+        <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G115">
-        <v>625.29412920000004</v>
+        <v>10401.79401</v>
       </c>
       <c r="H115">
-        <v>18.63</v>
+        <v>31.95</v>
       </c>
       <c r="I115">
-        <v>123.63</v>
+        <v>935.59</v>
       </c>
       <c r="J115">
-        <v>3149.9389999999999</v>
+        <v>79923.157999999996</v>
       </c>
       <c r="K115">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="L115">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="M115">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="N115">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="O115">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>248</v>
@@ -7420,46 +7414,46 @@
       <c r="D116" t="s">
         <v>249</v>
       </c>
-      <c r="E116">
-        <v>1</v>
+      <c r="E116" t="s">
+        <v>16</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G116">
-        <v>10401.79401</v>
+        <v>4211.050929</v>
       </c>
       <c r="H116">
-        <v>31.95</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I116">
-        <v>935.59</v>
+        <v>1429.93</v>
       </c>
       <c r="J116">
-        <v>79923.157999999996</v>
+        <v>49919.917999999998</v>
       </c>
       <c r="K116">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="L116">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="M116">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N116">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="O116">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
         <v>250</v>
@@ -7473,40 +7467,40 @@
       <c r="F117" t="s">
         <v>16</v>
       </c>
-      <c r="G117">
-        <v>4211.050929</v>
-      </c>
-      <c r="H117">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I117">
-        <v>1429.93</v>
-      </c>
-      <c r="J117">
-        <v>49919.917999999998</v>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
       </c>
       <c r="K117">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="L117">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M117">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="N117">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="O117">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
         <v>252</v>
@@ -7520,40 +7514,40 @@
       <c r="F118" t="s">
         <v>16</v>
       </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" t="s">
-        <v>16</v>
+      <c r="G118">
+        <v>565.06133309999996</v>
+      </c>
+      <c r="H118">
+        <v>23.31</v>
+      </c>
+      <c r="I118">
+        <v>10.17</v>
+      </c>
+      <c r="J118">
+        <v>276.87099999999998</v>
       </c>
       <c r="K118">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="L118">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M118">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="N118">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O118">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>254</v>
@@ -7561,46 +7555,46 @@
       <c r="D119" t="s">
         <v>255</v>
       </c>
-      <c r="E119" t="s">
-        <v>16</v>
+      <c r="E119">
+        <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G119">
-        <v>565.06133309999996</v>
+        <v>2097.0924730000002</v>
       </c>
       <c r="H119">
-        <v>23.31</v>
+        <v>200.96</v>
       </c>
       <c r="I119">
-        <v>10.17</v>
+        <v>14.79</v>
       </c>
       <c r="J119">
-        <v>276.87099999999998</v>
+        <v>1011.936</v>
       </c>
       <c r="K119">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L119">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="M119">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N119">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="O119">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
         <v>256</v>
@@ -7608,46 +7602,46 @@
       <c r="D120" t="s">
         <v>257</v>
       </c>
-      <c r="E120">
-        <v>3</v>
+      <c r="E120" t="s">
+        <v>16</v>
       </c>
       <c r="F120" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120">
+        <v>1905.256756</v>
+      </c>
+      <c r="H120">
+        <v>6.55</v>
+      </c>
+      <c r="I120">
+        <v>32.24</v>
+      </c>
+      <c r="J120">
+        <v>2559.0909999999999</v>
+      </c>
+      <c r="K120">
+        <v>105</v>
+      </c>
+      <c r="L120">
+        <v>132</v>
+      </c>
+      <c r="M120">
+        <v>125</v>
+      </c>
+      <c r="N120">
+        <v>130</v>
+      </c>
+      <c r="O120">
         <v>102</v>
       </c>
-      <c r="G120">
-        <v>2097.0924730000002</v>
-      </c>
-      <c r="H120">
-        <v>200.96</v>
-      </c>
-      <c r="I120">
-        <v>14.79</v>
-      </c>
-      <c r="J120">
-        <v>1011.936</v>
-      </c>
-      <c r="K120">
-        <v>103</v>
-      </c>
-      <c r="L120">
-        <v>15</v>
-      </c>
-      <c r="M120">
-        <v>133</v>
-      </c>
-      <c r="N120">
-        <v>144</v>
-      </c>
-      <c r="O120">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>258</v>
@@ -7655,46 +7649,46 @@
       <c r="D121" t="s">
         <v>259</v>
       </c>
-      <c r="E121" t="s">
-        <v>16</v>
+      <c r="E121">
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G121">
-        <v>1905.256756</v>
+        <v>52397.116710000002</v>
       </c>
       <c r="H121">
-        <v>6.55</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="I121">
-        <v>32.24</v>
+        <v>1062.6600000000001</v>
       </c>
       <c r="J121">
-        <v>2559.0909999999999</v>
+        <v>152482.24900000001</v>
       </c>
       <c r="K121">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="L121">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="M121">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="N121">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="O121">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>260</v>
@@ -7706,42 +7700,42 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G122">
-        <v>52397.116710000002</v>
+        <v>67389.912049999999</v>
       </c>
       <c r="H122">
-        <v>17.329999999999998</v>
+        <v>5.35</v>
       </c>
       <c r="I122">
-        <v>1062.6600000000001</v>
+        <v>186.24</v>
       </c>
       <c r="J122">
-        <v>152482.24900000001</v>
+        <v>47423.635999999999</v>
       </c>
       <c r="K122">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L122">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M122">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="N122">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="O122">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>262</v>
@@ -7749,46 +7743,46 @@
       <c r="D123" t="s">
         <v>263</v>
       </c>
-      <c r="E123">
-        <v>1</v>
+      <c r="E123" t="s">
+        <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G123">
-        <v>67389.912049999999</v>
+        <v>1155.1428539999999</v>
       </c>
       <c r="H123">
-        <v>5.35</v>
+        <v>28.61</v>
       </c>
       <c r="I123">
-        <v>186.24</v>
+        <v>401.59</v>
       </c>
       <c r="J123">
-        <v>47423.635999999999</v>
+        <v>27657.16</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="L123">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="M123">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="N123">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O123">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>264</v>
@@ -7803,39 +7797,39 @@
         <v>16</v>
       </c>
       <c r="G124">
-        <v>1155.1428539999999</v>
+        <v>41477.944920000002</v>
       </c>
       <c r="H124">
-        <v>28.61</v>
+        <v>4.92</v>
       </c>
       <c r="I124">
-        <v>401.59</v>
+        <v>7.73</v>
       </c>
       <c r="J124">
-        <v>27657.16</v>
+        <v>2198.2979999999998</v>
       </c>
       <c r="K124">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="L124">
+        <v>134</v>
+      </c>
+      <c r="M124">
+        <v>140</v>
+      </c>
+      <c r="N124">
         <v>133</v>
       </c>
-      <c r="M124">
-        <v>79</v>
-      </c>
-      <c r="N124">
-        <v>86</v>
-      </c>
       <c r="O124">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>266</v>
@@ -7849,40 +7843,40 @@
       <c r="F125" t="s">
         <v>16</v>
       </c>
-      <c r="G125">
-        <v>41477.944920000002</v>
+      <c r="G125" t="s">
+        <v>16</v>
       </c>
       <c r="H125">
-        <v>4.92</v>
+        <v>4.97</v>
       </c>
       <c r="I125">
-        <v>7.73</v>
+        <v>826.74</v>
       </c>
       <c r="J125">
-        <v>2198.2979999999998</v>
+        <v>58299.269</v>
       </c>
       <c r="K125">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="L125">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M125">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="N125">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O125">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>268</v>
@@ -7896,40 +7890,40 @@
       <c r="F126" t="s">
         <v>16</v>
       </c>
-      <c r="G126" t="s">
-        <v>16</v>
+      <c r="G126">
+        <v>1193.733397</v>
       </c>
       <c r="H126">
-        <v>4.97</v>
+        <v>216.57</v>
       </c>
       <c r="I126">
-        <v>826.74</v>
+        <v>132.28</v>
       </c>
       <c r="J126">
-        <v>58299.269</v>
+        <v>5702.44</v>
       </c>
       <c r="K126">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="L126">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M126">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="N126">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="O126">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>270</v>
@@ -7944,39 +7938,39 @@
         <v>16</v>
       </c>
       <c r="G127">
-        <v>1193.733397</v>
+        <v>12269.049000000001</v>
       </c>
       <c r="H127">
-        <v>216.57</v>
+        <v>4.25</v>
       </c>
       <c r="I127">
-        <v>132.28</v>
+        <v>1730.86</v>
       </c>
       <c r="J127">
-        <v>5702.44</v>
+        <v>108934.602</v>
       </c>
       <c r="K127">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="L127">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M127">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="N127">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="O127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>272</v>
@@ -7991,39 +7985,39 @@
         <v>16</v>
       </c>
       <c r="G128">
-        <v>12269.049000000001</v>
+        <v>6126.8745399999998</v>
       </c>
       <c r="H128">
-        <v>4.25</v>
+        <v>32.51</v>
       </c>
       <c r="I128">
-        <v>1730.86</v>
+        <v>6175.46</v>
       </c>
       <c r="J128">
-        <v>108934.602</v>
+        <v>66930.100999999995</v>
       </c>
       <c r="K128">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L128">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M128">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="O128">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
         <v>274</v>
@@ -8031,46 +8025,46 @@
       <c r="D129" t="s">
         <v>275</v>
       </c>
-      <c r="E129" t="s">
-        <v>16</v>
+      <c r="E129">
+        <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G129">
-        <v>6126.8745399999998</v>
+        <v>3298.829851</v>
       </c>
       <c r="H129">
-        <v>32.51</v>
+        <v>108.12</v>
       </c>
       <c r="I129">
-        <v>6175.46</v>
+        <v>429.37</v>
       </c>
       <c r="J129">
-        <v>66930.100999999995</v>
+        <v>25495.324000000001</v>
       </c>
       <c r="K129">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L129">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="N129">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="O129">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>276</v>
@@ -8078,46 +8072,46 @@
       <c r="D130" t="s">
         <v>277</v>
       </c>
-      <c r="E130">
-        <v>2</v>
+      <c r="E130" t="s">
+        <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G130">
-        <v>3298.829851</v>
+        <v>2636.8002489999999</v>
       </c>
       <c r="H130">
-        <v>108.12</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I130">
-        <v>429.37</v>
+        <v>49.68</v>
       </c>
       <c r="J130">
-        <v>25495.324000000001</v>
+        <v>3827.83</v>
       </c>
       <c r="K130">
+        <v>99</v>
+      </c>
+      <c r="L130">
+        <v>139</v>
+      </c>
+      <c r="M130">
+        <v>121</v>
+      </c>
+      <c r="N130">
+        <v>122</v>
+      </c>
+      <c r="O130">
         <v>93</v>
       </c>
-      <c r="L130">
-        <v>22</v>
-      </c>
-      <c r="M130">
-        <v>76</v>
-      </c>
-      <c r="N130">
-        <v>89</v>
-      </c>
-      <c r="O130">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
         <v>278</v>
@@ -8125,46 +8119,46 @@
       <c r="D131" t="s">
         <v>279</v>
       </c>
-      <c r="E131" t="s">
-        <v>16</v>
+      <c r="E131">
+        <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G131">
-        <v>2636.8002489999999</v>
+        <v>15656.18273</v>
       </c>
       <c r="H131">
-        <v>8.7799999999999994</v>
+        <v>37.97</v>
       </c>
       <c r="I131">
-        <v>49.68</v>
+        <v>2106.7199999999998</v>
       </c>
       <c r="J131">
-        <v>3827.83</v>
+        <v>92262.718999999997</v>
       </c>
       <c r="K131">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="L131">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="M131">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="N131">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O131">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
         <v>280</v>
@@ -8172,46 +8166,46 @@
       <c r="D132" t="s">
         <v>281</v>
       </c>
-      <c r="E132">
-        <v>1</v>
+      <c r="E132" t="s">
+        <v>16</v>
       </c>
       <c r="F132" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G132">
-        <v>15656.18273</v>
+        <v>32290.921139999999</v>
       </c>
       <c r="H132">
-        <v>37.97</v>
+        <v>3.19</v>
       </c>
       <c r="I132">
-        <v>2106.7199999999998</v>
-      </c>
-      <c r="J132">
-        <v>92262.718999999997</v>
+        <v>1020.45</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
       </c>
       <c r="K132">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L132">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="M132">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N132">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="O132">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>282</v>
@@ -8225,40 +8219,40 @@
       <c r="F133" t="s">
         <v>16</v>
       </c>
-      <c r="G133">
-        <v>32290.921139999999</v>
-      </c>
-      <c r="H133">
-        <v>3.19</v>
-      </c>
-      <c r="I133">
-        <v>1020.45</v>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" t="s">
+        <v>16</v>
       </c>
       <c r="J133" t="s">
         <v>16</v>
       </c>
       <c r="K133">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="L133">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M133">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="N133">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O133">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
         <v>284</v>
@@ -8272,40 +8266,40 @@
       <c r="F134" t="s">
         <v>16</v>
       </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" t="s">
-        <v>16</v>
-      </c>
-      <c r="J134" t="s">
-        <v>16</v>
+      <c r="G134">
+        <v>22437.078010000001</v>
+      </c>
+      <c r="H134">
+        <v>10.27</v>
+      </c>
+      <c r="I134">
+        <v>1781.5</v>
+      </c>
+      <c r="J134">
+        <v>112098.607</v>
       </c>
       <c r="K134">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="L134">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M134">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="N134">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="O134">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>286</v>
@@ -8320,39 +8314,39 @@
         <v>16</v>
       </c>
       <c r="G135">
-        <v>22437.078010000001</v>
+        <v>4949.7497000000003</v>
       </c>
       <c r="H135">
-        <v>10.27</v>
+        <v>7.04</v>
       </c>
       <c r="I135">
-        <v>1781.5</v>
+        <v>2320.77</v>
       </c>
       <c r="J135">
-        <v>112098.607</v>
+        <v>64075.900999999998</v>
       </c>
       <c r="K135">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="L135">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M135">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N135">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="O135">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
         <v>288</v>
@@ -8367,39 +8361,39 @@
         <v>16</v>
       </c>
       <c r="G136">
-        <v>4949.7497000000003</v>
+        <v>50805.46357</v>
       </c>
       <c r="H136">
-        <v>7.04</v>
+        <v>2.83</v>
       </c>
       <c r="I136">
-        <v>2320.77</v>
+        <v>215.74</v>
       </c>
       <c r="J136">
-        <v>64075.900999999998</v>
+        <v>82913.157999999996</v>
       </c>
       <c r="K136">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L136">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M136">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="N136">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O136">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>290</v>
@@ -8414,39 +8408,39 @@
         <v>16</v>
       </c>
       <c r="G137">
-        <v>50805.46357</v>
+        <v>12896.08862</v>
       </c>
       <c r="H137">
-        <v>2.83</v>
+        <v>19.36</v>
       </c>
       <c r="I137">
-        <v>215.74</v>
+        <v>2807.47</v>
       </c>
       <c r="J137">
-        <v>82913.157999999996</v>
+        <v>92826.911999999997</v>
       </c>
       <c r="K137">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L137">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M137">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="N137">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="O137">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>292</v>
@@ -8454,46 +8448,46 @@
       <c r="D138" t="s">
         <v>293</v>
       </c>
-      <c r="E138" t="s">
-        <v>16</v>
+      <c r="E138">
+        <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G138">
-        <v>12896.08862</v>
+        <v>10126.72179</v>
       </c>
       <c r="H138">
-        <v>19.36</v>
+        <v>144.37</v>
       </c>
       <c r="I138">
-        <v>2807.47</v>
+        <v>1769.35</v>
       </c>
       <c r="J138">
-        <v>92826.911999999997</v>
+        <v>64221.535000000003</v>
       </c>
       <c r="K138">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L138">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="M138">
+        <v>31</v>
+      </c>
+      <c r="N138">
+        <v>60</v>
+      </c>
+      <c r="O138">
         <v>9</v>
       </c>
-      <c r="N138">
-        <v>36</v>
-      </c>
-      <c r="O138">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
         <v>294</v>
@@ -8502,45 +8496,45 @@
         <v>295</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="G139">
-        <v>10126.72179</v>
+        <v>797.85555429999999</v>
       </c>
       <c r="H139">
-        <v>144.37</v>
+        <v>12.63</v>
       </c>
       <c r="I139">
-        <v>1769.35</v>
+        <v>106.04</v>
       </c>
       <c r="J139">
-        <v>64221.535000000003</v>
+        <v>7556.5749999999998</v>
       </c>
       <c r="K139">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="L139">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M139">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="N139">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
         <v>296</v>
@@ -8548,46 +8542,46 @@
       <c r="D140" t="s">
         <v>297</v>
       </c>
-      <c r="E140">
-        <v>2</v>
+      <c r="E140" t="s">
+        <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140">
-        <v>797.85555429999999</v>
-      </c>
-      <c r="H140">
-        <v>12.63</v>
-      </c>
-      <c r="I140">
-        <v>106.04</v>
-      </c>
-      <c r="J140">
-        <v>7556.5749999999998</v>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
       </c>
       <c r="K140">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L140">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="M140">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="N140">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O140">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
         <v>298</v>
@@ -8601,40 +8595,40 @@
       <c r="F141" t="s">
         <v>16</v>
       </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" t="s">
-        <v>16</v>
+      <c r="G141">
+        <v>20110.316190000001</v>
+      </c>
+      <c r="H141">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="I141">
+        <v>257.41000000000003</v>
+      </c>
+      <c r="J141">
+        <v>15553.492</v>
       </c>
       <c r="K141">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="L141">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M141">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="N141">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O141">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>300</v>
@@ -8649,39 +8643,39 @@
         <v>16</v>
       </c>
       <c r="G142">
-        <v>20110.316190000001</v>
+        <v>595.46783300000004</v>
       </c>
       <c r="H142">
-        <v>34.270000000000003</v>
+        <v>42.81</v>
       </c>
       <c r="I142">
-        <v>257.41000000000003</v>
+        <v>72.38</v>
       </c>
       <c r="J142">
-        <v>15553.492</v>
+        <v>936.46400000000006</v>
       </c>
       <c r="K142">
+        <v>132</v>
+      </c>
+      <c r="L142">
+        <v>148</v>
+      </c>
+      <c r="M142">
+        <v>112</v>
+      </c>
+      <c r="N142">
+        <v>145</v>
+      </c>
+      <c r="O142">
         <v>32</v>
       </c>
-      <c r="L142">
-        <v>147</v>
-      </c>
-      <c r="M142">
-        <v>85</v>
-      </c>
-      <c r="N142">
-        <v>94</v>
-      </c>
-      <c r="O142">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
         <v>302</v>
@@ -8695,40 +8689,40 @@
       <c r="F143" t="s">
         <v>16</v>
       </c>
-      <c r="G143">
-        <v>595.46783300000004</v>
+      <c r="G143" t="s">
+        <v>16</v>
       </c>
       <c r="H143">
-        <v>42.81</v>
+        <v>11.06</v>
       </c>
       <c r="I143">
-        <v>72.38</v>
+        <v>12.02</v>
       </c>
       <c r="J143">
-        <v>936.46400000000006</v>
+        <v>1117.3520000000001</v>
       </c>
       <c r="K143">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="L143">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M143">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="N143">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O143">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>304</v>
@@ -8742,40 +8736,40 @@
       <c r="F144" t="s">
         <v>16</v>
       </c>
-      <c r="G144" t="s">
-        <v>16</v>
+      <c r="G144">
+        <v>1487.7573090000001</v>
       </c>
       <c r="H144">
-        <v>11.06</v>
+        <v>16.3</v>
       </c>
       <c r="I144">
-        <v>12.02</v>
+        <v>115.55</v>
       </c>
       <c r="J144">
-        <v>1117.3520000000001</v>
+        <v>4302.1440000000002</v>
       </c>
       <c r="K144">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="L144">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M144">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="N144">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="O144">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
         <v>306</v>
@@ -8790,39 +8784,39 @@
         <v>16</v>
       </c>
       <c r="G145">
-        <v>1487.7573090000001</v>
-      </c>
-      <c r="H145">
-        <v>16.3</v>
-      </c>
-      <c r="I145">
-        <v>115.55</v>
+        <v>2258.400365</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>16</v>
       </c>
       <c r="J145">
-        <v>4302.1440000000002</v>
+        <v>28.408999999999999</v>
       </c>
       <c r="K145">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L145">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M145">
-        <v>106</v>
+        <v>170</v>
       </c>
       <c r="N145">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="O145">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>308</v>
@@ -8837,39 +8831,39 @@
         <v>16</v>
       </c>
       <c r="G146">
-        <v>2258.400365</v>
-      </c>
-      <c r="H146" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" t="s">
-        <v>16</v>
+        <v>484.52126750000002</v>
+      </c>
+      <c r="H146">
+        <v>7.81</v>
+      </c>
+      <c r="I146">
+        <v>15.49</v>
       </c>
       <c r="J146">
-        <v>28.408999999999999</v>
+        <v>786.23400000000004</v>
       </c>
       <c r="K146">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="L146">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M146">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="N146">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O146">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
         <v>310</v>
@@ -8884,89 +8878,89 @@
         <v>16</v>
       </c>
       <c r="G147">
-        <v>484.52126750000002</v>
+        <v>3798.6365209999999</v>
       </c>
       <c r="H147">
-        <v>7.81</v>
+        <v>6.45</v>
       </c>
       <c r="I147">
-        <v>15.49</v>
+        <v>579.67999999999995</v>
       </c>
       <c r="J147">
-        <v>786.23400000000004</v>
+        <v>18243.308000000001</v>
       </c>
       <c r="K147">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="L147">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M147">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="N147">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O147">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
+        <v>-99</v>
+      </c>
+      <c r="D148" t="s">
         <v>312</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+      <c r="K148">
+        <v>169</v>
+      </c>
+      <c r="L148">
+        <v>154</v>
+      </c>
+      <c r="M148">
+        <v>171</v>
+      </c>
+      <c r="N148">
+        <v>174</v>
+      </c>
+      <c r="O148">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
         <v>313</v>
-      </c>
-      <c r="E148" t="s">
-        <v>16</v>
-      </c>
-      <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148">
-        <v>3798.6365209999999</v>
-      </c>
-      <c r="H148">
-        <v>6.45</v>
-      </c>
-      <c r="I148">
-        <v>579.67999999999995</v>
-      </c>
-      <c r="J148">
-        <v>18243.308000000001</v>
-      </c>
-      <c r="K148">
-        <v>85</v>
-      </c>
-      <c r="L148">
-        <v>153</v>
-      </c>
-      <c r="M148">
-        <v>71</v>
-      </c>
-      <c r="N148">
-        <v>92</v>
-      </c>
-      <c r="O148">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149">
-        <v>148</v>
-      </c>
-      <c r="C149">
-        <v>-99</v>
       </c>
       <c r="D149" t="s">
         <v>314</v>
@@ -8977,40 +8971,40 @@
       <c r="F149" t="s">
         <v>16</v>
       </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
-      <c r="H149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" t="s">
-        <v>16</v>
-      </c>
-      <c r="J149" t="s">
-        <v>16</v>
+      <c r="G149">
+        <v>309.41545459999998</v>
+      </c>
+      <c r="H149">
+        <v>15.44</v>
+      </c>
+      <c r="I149">
+        <v>85.02</v>
+      </c>
+      <c r="J149">
+        <v>1406.8889999999999</v>
       </c>
       <c r="K149">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="L149">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M149">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="N149">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="O149">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
         <v>315</v>
@@ -9024,40 +9018,40 @@
       <c r="F150" t="s">
         <v>16</v>
       </c>
-      <c r="G150">
-        <v>309.41545459999998</v>
-      </c>
-      <c r="H150">
-        <v>15.44</v>
-      </c>
-      <c r="I150">
-        <v>85.02</v>
-      </c>
-      <c r="J150">
-        <v>1406.8889999999999</v>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>16</v>
       </c>
       <c r="K150">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="L150">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M150">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="N150">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="O150">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
         <v>317</v>
@@ -9071,8 +9065,8 @@
       <c r="F151" t="s">
         <v>16</v>
       </c>
-      <c r="G151" t="s">
-        <v>16</v>
+      <c r="G151">
+        <v>6491.1390650000003</v>
       </c>
       <c r="H151" t="s">
         <v>16</v>
@@ -9080,31 +9074,31 @@
       <c r="I151" t="s">
         <v>16</v>
       </c>
-      <c r="J151" t="s">
-        <v>16</v>
+      <c r="J151">
+        <v>85740.404999999999</v>
       </c>
       <c r="K151">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="L151">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M151">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N151">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="O151">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
         <v>319</v>
@@ -9118,40 +9112,40 @@
       <c r="F152" t="s">
         <v>16</v>
       </c>
-      <c r="G152">
-        <v>6491.1390650000003</v>
-      </c>
-      <c r="H152" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" t="s">
-        <v>16</v>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152">
+        <v>5.45</v>
+      </c>
+      <c r="I152">
+        <v>2516.4699999999998</v>
       </c>
       <c r="J152">
-        <v>85740.404999999999</v>
+        <v>209325.28</v>
       </c>
       <c r="K152">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="L152">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M152">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="N152">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="O152">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
         <v>321</v>
@@ -9165,40 +9159,40 @@
       <c r="F153" t="s">
         <v>16</v>
       </c>
-      <c r="G153" t="s">
-        <v>16</v>
+      <c r="G153">
+        <v>25517.330669999999</v>
       </c>
       <c r="H153">
-        <v>5.45</v>
+        <v>2.09</v>
       </c>
       <c r="I153">
-        <v>2516.4699999999998</v>
+        <v>2395.1799999999998</v>
       </c>
       <c r="J153">
-        <v>209325.28</v>
+        <v>200073.79500000001</v>
       </c>
       <c r="K153">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="L153">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M153">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O153">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
         <v>323</v>
@@ -9206,46 +9200,46 @@
       <c r="D154" t="s">
         <v>324</v>
       </c>
-      <c r="E154" t="s">
-        <v>16</v>
+      <c r="E154">
+        <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G154">
-        <v>25517.330669999999</v>
+        <v>52259.297380000004</v>
       </c>
       <c r="H154">
-        <v>2.09</v>
+        <v>10.29</v>
       </c>
       <c r="I154">
-        <v>2395.1799999999998</v>
+        <v>1468.97</v>
       </c>
       <c r="J154">
-        <v>200073.79500000001</v>
+        <v>117995.004</v>
       </c>
       <c r="K154">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L154">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="M154">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O154">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>325</v>
@@ -9253,46 +9247,46 @@
       <c r="D155" t="s">
         <v>326</v>
       </c>
-      <c r="E155">
-        <v>1</v>
+      <c r="E155" t="s">
+        <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>76</v>
-      </c>
-      <c r="G155">
-        <v>52259.297380000004</v>
-      </c>
-      <c r="H155">
-        <v>10.29</v>
-      </c>
-      <c r="I155">
-        <v>1468.97</v>
-      </c>
-      <c r="J155">
-        <v>117995.004</v>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
       </c>
       <c r="K155">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="L155">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="M155">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="N155">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O155">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>327</v>
@@ -9309,37 +9303,37 @@
       <c r="G156" t="s">
         <v>16</v>
       </c>
-      <c r="H156" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" t="s">
-        <v>16</v>
-      </c>
-      <c r="J156" t="s">
-        <v>16</v>
+      <c r="H156">
+        <v>17.07</v>
+      </c>
+      <c r="I156">
+        <v>157.53</v>
+      </c>
+      <c r="J156">
+        <v>2613.5239999999999</v>
       </c>
       <c r="K156">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L156">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M156">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="N156">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="O156">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
         <v>329</v>
@@ -9353,40 +9347,40 @@
       <c r="F157" t="s">
         <v>16</v>
       </c>
-      <c r="G157" t="s">
-        <v>16</v>
+      <c r="G157">
+        <v>614.46518990000004</v>
       </c>
       <c r="H157">
-        <v>17.07</v>
+        <v>15.95</v>
       </c>
       <c r="I157">
-        <v>157.53</v>
+        <v>10.97</v>
       </c>
       <c r="J157">
-        <v>2613.5239999999999</v>
+        <v>301.92200000000003</v>
       </c>
       <c r="K157">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="L157">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M157">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="N157">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="O157">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
         <v>331</v>
@@ -9401,39 +9395,39 @@
         <v>16</v>
       </c>
       <c r="G158">
-        <v>614.46518990000004</v>
+        <v>914.95058259999996</v>
       </c>
       <c r="H158">
-        <v>15.95</v>
+        <v>8.08</v>
       </c>
       <c r="I158">
-        <v>10.97</v>
+        <v>30.07</v>
       </c>
       <c r="J158">
-        <v>301.92200000000003</v>
+        <v>3095.0990000000002</v>
       </c>
       <c r="K158">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L158">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M158">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="N158">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="O158">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
         <v>333</v>
@@ -9441,46 +9435,46 @@
       <c r="D159" t="s">
         <v>334</v>
       </c>
-      <c r="E159" t="s">
-        <v>16</v>
+      <c r="E159">
+        <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G159">
-        <v>914.95058259999996</v>
+        <v>7189.041835</v>
       </c>
       <c r="H159">
-        <v>8.08</v>
+        <v>69.63</v>
       </c>
       <c r="I159">
-        <v>30.07</v>
+        <v>290.89999999999998</v>
       </c>
       <c r="J159">
-        <v>3095.0990000000002</v>
+        <v>30034.791000000001</v>
       </c>
       <c r="K159">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="L159">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="M159">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="N159">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="O159">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
         <v>335</v>
@@ -9488,46 +9482,46 @@
       <c r="D160" t="s">
         <v>336</v>
       </c>
-      <c r="E160">
-        <v>7</v>
+      <c r="E160" t="s">
+        <v>16</v>
       </c>
       <c r="F160" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="G160">
-        <v>7189.041835</v>
+        <v>859.13796109999998</v>
       </c>
       <c r="H160">
-        <v>69.63</v>
+        <v>9.32</v>
       </c>
       <c r="I160">
-        <v>290.89999999999998</v>
+        <v>13.41</v>
       </c>
       <c r="J160">
-        <v>30034.791000000001</v>
+        <v>1794.223</v>
       </c>
       <c r="K160">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="L160">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="M160">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="N160">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="O160">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
         <v>337</v>
@@ -9541,40 +9535,40 @@
       <c r="F161" t="s">
         <v>16</v>
       </c>
-      <c r="G161">
-        <v>859.13796109999998</v>
-      </c>
-      <c r="H161">
-        <v>9.32</v>
-      </c>
-      <c r="I161">
-        <v>13.41</v>
-      </c>
-      <c r="J161">
-        <v>1794.223</v>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
       </c>
       <c r="K161">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="L161">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M161">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="N161">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="O161">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
         <v>339</v>
@@ -9601,27 +9595,27 @@
         <v>16</v>
       </c>
       <c r="K162">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L162">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M162">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N162">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O162">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
         <v>341</v>
@@ -9635,40 +9629,40 @@
       <c r="F163" t="s">
         <v>16</v>
       </c>
-      <c r="G163" t="s">
-        <v>16</v>
-      </c>
-      <c r="H163" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" t="s">
-        <v>16</v>
-      </c>
-      <c r="J163" t="s">
-        <v>16</v>
+      <c r="G163">
+        <v>15384.03946</v>
+      </c>
+      <c r="H163">
+        <v>1.39</v>
+      </c>
+      <c r="I163">
+        <v>1367.77</v>
+      </c>
+      <c r="J163">
+        <v>49651.767999999996</v>
       </c>
       <c r="K163">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="L163">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M163">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="N163">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="O163">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>343</v>
@@ -9676,46 +9670,46 @@
       <c r="D164" t="s">
         <v>344</v>
       </c>
-      <c r="E164" t="s">
-        <v>16</v>
+      <c r="E164">
+        <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G164">
-        <v>15384.03946</v>
+        <v>3319.8190239999999</v>
       </c>
       <c r="H164">
-        <v>1.39</v>
+        <v>11.69</v>
       </c>
       <c r="I164">
-        <v>1367.77</v>
+        <v>2165.9299999999998</v>
       </c>
       <c r="J164">
-        <v>49651.767999999996</v>
+        <v>60085.22</v>
       </c>
       <c r="K164">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="L164">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="M164">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N164">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O164">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>345</v>
@@ -9727,42 +9721,42 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G165">
-        <v>3319.8190239999999</v>
+        <v>8538.1690600000002</v>
       </c>
       <c r="H165">
-        <v>11.69</v>
+        <v>83.43</v>
       </c>
       <c r="I165">
-        <v>2165.9299999999998</v>
+        <v>892.11</v>
       </c>
       <c r="J165">
-        <v>60085.22</v>
+        <v>102611.586</v>
       </c>
       <c r="K165">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="L165">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M165">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N165">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="O165">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
         <v>347</v>
@@ -9770,46 +9764,46 @@
       <c r="D166" t="s">
         <v>348</v>
       </c>
-      <c r="E166">
-        <v>1</v>
+      <c r="E166" t="s">
+        <v>16</v>
       </c>
       <c r="F166" t="s">
-        <v>102</v>
-      </c>
-      <c r="G166">
-        <v>8538.1690600000002</v>
-      </c>
-      <c r="H166">
-        <v>83.43</v>
-      </c>
-      <c r="I166">
-        <v>892.11</v>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>16</v>
       </c>
       <c r="J166">
-        <v>102611.586</v>
+        <v>694.94799999999998</v>
       </c>
       <c r="K166">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="L166">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="M166">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="N166">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="O166">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
         <v>349</v>
@@ -9832,31 +9826,31 @@
       <c r="I167" t="s">
         <v>16</v>
       </c>
-      <c r="J167">
-        <v>694.94799999999998</v>
+      <c r="J167" t="s">
+        <v>16</v>
       </c>
       <c r="K167">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L167">
+        <v>169</v>
+      </c>
+      <c r="M167">
+        <v>178</v>
+      </c>
+      <c r="N167">
+        <v>179</v>
+      </c>
+      <c r="O167">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168">
         <v>168</v>
       </c>
-      <c r="M167">
-        <v>177</v>
-      </c>
-      <c r="N167">
-        <v>149</v>
-      </c>
-      <c r="O167">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
       <c r="B168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
         <v>351</v>
@@ -9870,40 +9864,40 @@
       <c r="F168" t="s">
         <v>16</v>
       </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
-      <c r="H168" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" t="s">
-        <v>16</v>
-      </c>
-      <c r="J168" t="s">
-        <v>16</v>
+      <c r="G168">
+        <v>817.03575690000002</v>
+      </c>
+      <c r="H168">
+        <v>44.27</v>
+      </c>
+      <c r="I168">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="J168">
+        <v>2704.0210000000002</v>
       </c>
       <c r="K168">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="L168">
+        <v>170</v>
+      </c>
+      <c r="M168">
+        <v>111</v>
+      </c>
+      <c r="N168">
+        <v>128</v>
+      </c>
+      <c r="O168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169">
         <v>169</v>
       </c>
-      <c r="M168">
-        <v>178</v>
-      </c>
-      <c r="N168">
-        <v>179</v>
-      </c>
-      <c r="O168">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
       <c r="B169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
         <v>353</v>
@@ -9918,39 +9912,39 @@
         <v>16</v>
       </c>
       <c r="G169">
-        <v>817.03575690000002</v>
+        <v>3726.9271490000001</v>
       </c>
       <c r="H169">
-        <v>44.27</v>
+        <v>44.39</v>
       </c>
       <c r="I169">
-        <v>73.349999999999994</v>
+        <v>1901.38</v>
       </c>
       <c r="J169">
-        <v>2704.0210000000002</v>
+        <v>82377.106</v>
       </c>
       <c r="K169">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="L169">
+        <v>171</v>
+      </c>
+      <c r="M169">
+        <v>28</v>
+      </c>
+      <c r="N169">
+        <v>49</v>
+      </c>
+      <c r="O169">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>170</v>
       </c>
-      <c r="M169">
-        <v>111</v>
-      </c>
-      <c r="N169">
-        <v>128</v>
-      </c>
-      <c r="O169">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
       <c r="B170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
         <v>355</v>
@@ -9965,39 +9959,39 @@
         <v>16</v>
       </c>
       <c r="G170">
-        <v>3726.9271490000001</v>
+        <v>15438.41167</v>
       </c>
       <c r="H170">
-        <v>44.39</v>
+        <v>3.46</v>
       </c>
       <c r="I170">
-        <v>1901.38</v>
+        <v>1765.01</v>
       </c>
       <c r="J170">
-        <v>82377.106</v>
+        <v>114537.61599999999</v>
       </c>
       <c r="K170">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="L170">
+        <v>172</v>
+      </c>
+      <c r="M170">
+        <v>32</v>
+      </c>
+      <c r="N170">
+        <v>19</v>
+      </c>
+      <c r="O170">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171">
         <v>171</v>
       </c>
-      <c r="M170">
-        <v>28</v>
-      </c>
-      <c r="N170">
-        <v>49</v>
-      </c>
-      <c r="O170">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
       <c r="B171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
         <v>357</v>
@@ -10005,46 +9999,46 @@
       <c r="D171" t="s">
         <v>358</v>
       </c>
-      <c r="E171" t="s">
-        <v>16</v>
+      <c r="E171">
+        <v>95</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G171">
-        <v>15438.41167</v>
+        <v>63543.577790000003</v>
       </c>
       <c r="H171">
-        <v>3.46</v>
+        <v>328.24</v>
       </c>
       <c r="I171">
-        <v>1765.01</v>
+        <v>2330.89</v>
       </c>
       <c r="J171">
-        <v>114537.61599999999</v>
+        <v>144789.06700000001</v>
       </c>
       <c r="K171">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>16</v>
+      </c>
+      <c r="N171">
+        <v>12</v>
+      </c>
+      <c r="O171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172">
         <v>172</v>
       </c>
-      <c r="M171">
-        <v>32</v>
-      </c>
-      <c r="N171">
-        <v>19</v>
-      </c>
-      <c r="O171">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
       <c r="B172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
         <v>359</v>
@@ -10052,46 +10046,46 @@
       <c r="D172" t="s">
         <v>360</v>
       </c>
-      <c r="E172">
-        <v>95</v>
+      <c r="E172" t="s">
+        <v>16</v>
       </c>
       <c r="F172" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G172">
-        <v>63543.577790000003</v>
+        <v>1685.7649469999999</v>
       </c>
       <c r="H172">
-        <v>328.24</v>
+        <v>33.58</v>
       </c>
       <c r="I172">
-        <v>2330.89</v>
+        <v>40.71</v>
       </c>
       <c r="J172">
-        <v>144789.06700000001</v>
+        <v>5675.3990000000003</v>
       </c>
       <c r="K172">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="M172">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="N172">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="O172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
         <v>361</v>
@@ -10105,40 +10099,40 @@
       <c r="F173" t="s">
         <v>16</v>
       </c>
-      <c r="G173">
-        <v>1685.7649469999999</v>
+      <c r="G173" t="s">
+        <v>16</v>
       </c>
       <c r="H173">
-        <v>33.58</v>
+        <v>28.52</v>
       </c>
       <c r="I173">
-        <v>40.71</v>
+        <v>177.06</v>
       </c>
       <c r="J173">
-        <v>5675.3990000000003</v>
+        <v>14981.599</v>
       </c>
       <c r="K173">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="L173">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M173">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="N173">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O173">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
         <v>363</v>
@@ -10152,40 +10146,40 @@
       <c r="F174" t="s">
         <v>16</v>
       </c>
-      <c r="G174" t="s">
-        <v>16</v>
+      <c r="G174">
+        <v>2785.7241570000001</v>
       </c>
       <c r="H174">
-        <v>28.52</v>
+        <v>96.46</v>
       </c>
       <c r="I174">
-        <v>177.06</v>
+        <v>243.37</v>
       </c>
       <c r="J174">
-        <v>14981.599</v>
+        <v>12197.395</v>
       </c>
       <c r="K174">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="L174">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M174">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N174">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O174">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
         <v>365</v>
@@ -10200,39 +10194,39 @@
         <v>16</v>
       </c>
       <c r="G175">
-        <v>2785.7241570000001</v>
-      </c>
-      <c r="H175">
-        <v>96.46</v>
-      </c>
-      <c r="I175">
-        <v>243.37</v>
+        <v>2782.98434</v>
+      </c>
+      <c r="H175" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" t="s">
+        <v>16</v>
       </c>
       <c r="J175">
-        <v>12197.395</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="K175">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L175">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M175">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="N175">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="O175">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
         <v>367</v>
@@ -10246,8 +10240,8 @@
       <c r="F176" t="s">
         <v>16</v>
       </c>
-      <c r="G176">
-        <v>2782.98434</v>
+      <c r="G176" t="s">
+        <v>16</v>
       </c>
       <c r="H176" t="s">
         <v>16</v>
@@ -10255,31 +10249,31 @@
       <c r="I176" t="s">
         <v>16</v>
       </c>
-      <c r="J176">
-        <v>19.079999999999998</v>
+      <c r="J176" t="s">
+        <v>16</v>
       </c>
       <c r="K176">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="L176">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M176">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N176">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="O176">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
         <v>369</v>
@@ -10296,37 +10290,37 @@
       <c r="G177" t="s">
         <v>16</v>
       </c>
-      <c r="H177" t="s">
-        <v>16</v>
-      </c>
-      <c r="I177" t="s">
-        <v>16</v>
-      </c>
-      <c r="J177" t="s">
-        <v>16</v>
+      <c r="H177">
+        <v>29.16</v>
+      </c>
+      <c r="I177">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="J177">
+        <v>327.346</v>
       </c>
       <c r="K177">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L177">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M177">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="N177">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="O177">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
         <v>371</v>
@@ -10334,46 +10328,46 @@
       <c r="D178" t="s">
         <v>372</v>
       </c>
-      <c r="E178" t="s">
-        <v>16</v>
+      <c r="E178">
+        <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
+        <v>135</v>
+      </c>
+      <c r="G178">
+        <v>5090.7150250000004</v>
       </c>
       <c r="H178">
-        <v>29.16</v>
+        <v>58.56</v>
       </c>
       <c r="I178">
-        <v>66.319999999999993</v>
+        <v>1528.65</v>
       </c>
       <c r="J178">
-        <v>327.346</v>
+        <v>49274.644</v>
       </c>
       <c r="K178">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="L178">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="M178">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="N178">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="O178">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
         <v>373</v>
@@ -10381,46 +10375,46 @@
       <c r="D179" t="s">
         <v>374</v>
       </c>
-      <c r="E179">
-        <v>2</v>
+      <c r="E179" t="s">
+        <v>16</v>
       </c>
       <c r="F179" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="G179">
-        <v>5090.7150250000004</v>
+        <v>1050.919283</v>
       </c>
       <c r="H179">
-        <v>58.56</v>
+        <v>17.86</v>
       </c>
       <c r="I179">
-        <v>1528.65</v>
+        <v>205.25</v>
       </c>
       <c r="J179">
-        <v>49274.644</v>
+        <v>11106.273999999999</v>
       </c>
       <c r="K179">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="L179">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="M179">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N179">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O179">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
         <v>375</v>
@@ -10435,77 +10429,30 @@
         <v>16</v>
       </c>
       <c r="G180">
-        <v>1050.919283</v>
+        <v>1128.2107109999999</v>
       </c>
       <c r="H180">
-        <v>17.86</v>
+        <v>14.65</v>
       </c>
       <c r="I180">
-        <v>205.25</v>
+        <v>320.85000000000002</v>
       </c>
       <c r="J180">
-        <v>11106.273999999999</v>
+        <v>8867.9089999999997</v>
       </c>
       <c r="K180">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M180">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N180">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O180">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181">
-        <v>180</v>
-      </c>
-      <c r="C181" t="s">
-        <v>377</v>
-      </c>
-      <c r="D181" t="s">
-        <v>378</v>
-      </c>
-      <c r="E181" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181">
-        <v>1128.2107109999999</v>
-      </c>
-      <c r="H181">
-        <v>14.65</v>
-      </c>
-      <c r="I181">
-        <v>320.85000000000002</v>
-      </c>
-      <c r="J181">
-        <v>8867.9089999999997</v>
-      </c>
-      <c r="K181">
-        <v>120</v>
-      </c>
-      <c r="L181">
-        <v>180</v>
-      </c>
-      <c r="M181">
-        <v>82</v>
-      </c>
-      <c r="N181">
-        <v>106</v>
-      </c>
-      <c r="O181">
         <v>68</v>
       </c>
     </row>
